--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H2">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I2">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J2">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N2">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O2">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P2">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q2">
-        <v>0.003333449208</v>
+        <v>0.5483205036017776</v>
       </c>
       <c r="R2">
-        <v>0.030001042872</v>
+        <v>4.934884532416</v>
       </c>
       <c r="S2">
-        <v>1.019912922491851E-09</v>
+        <v>9.045845262539067E-08</v>
       </c>
       <c r="T2">
-        <v>1.019912922491851E-09</v>
+        <v>9.045845262539068E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H3">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I3">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J3">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N3">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O3">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P3">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q3">
-        <v>0.3787444139128888</v>
+        <v>9.542831899481778</v>
       </c>
       <c r="R3">
-        <v>3.408699725215999</v>
+        <v>85.885487095336</v>
       </c>
       <c r="S3">
-        <v>1.15881868289549E-07</v>
+        <v>1.574316119169359E-06</v>
       </c>
       <c r="T3">
-        <v>1.15881868289549E-07</v>
+        <v>1.574316119169359E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H4">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I4">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J4">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N4">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O4">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P4">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q4">
-        <v>1.907101630161778</v>
+        <v>95.53477929562244</v>
       </c>
       <c r="R4">
-        <v>17.163914671456</v>
+        <v>859.8130136606021</v>
       </c>
       <c r="S4">
-        <v>5.835029951676623E-07</v>
+        <v>1.576072433954884E-05</v>
       </c>
       <c r="T4">
-        <v>5.835029951676623E-07</v>
+        <v>1.576072433954885E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H5">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I5">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J5">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N5">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O5">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P5">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q5">
-        <v>0.06846893370133333</v>
+        <v>0.5537130381133333</v>
       </c>
       <c r="R5">
-        <v>0.616220403312</v>
+        <v>4.98341734302</v>
       </c>
       <c r="S5">
-        <v>2.094897684465563E-08</v>
+        <v>9.134807890133713E-08</v>
       </c>
       <c r="T5">
-        <v>2.094897684465563E-08</v>
+        <v>9.134807890133714E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H6">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I6">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J6">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N6">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O6">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P6">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q6">
-        <v>94.07822434819823</v>
+        <v>3321.321410373677</v>
       </c>
       <c r="R6">
-        <v>846.7040191337841</v>
+        <v>29891.89269336309</v>
       </c>
       <c r="S6">
-        <v>2.878447840379239E-05</v>
+        <v>0.0005479306235686222</v>
       </c>
       <c r="T6">
-        <v>2.878447840379238E-05</v>
+        <v>0.0005479306235686222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H7">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I7">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J7">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N7">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O7">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P7">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q7">
-        <v>1.440880835608</v>
+        <v>25.66082002739178</v>
       </c>
       <c r="R7">
-        <v>12.967927520472</v>
+        <v>230.947380246526</v>
       </c>
       <c r="S7">
-        <v>4.408565699698087E-07</v>
+        <v>4.23335997382712E-06</v>
       </c>
       <c r="T7">
-        <v>4.408565699698087E-07</v>
+        <v>4.233359973827121E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H8">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I8">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J8">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N8">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O8">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P8">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q8">
-        <v>4.936711912812</v>
+        <v>58.91965729170843</v>
       </c>
       <c r="R8">
-        <v>44.430407215308</v>
+        <v>530.2769156253759</v>
       </c>
       <c r="S8">
-        <v>1.510452375399272E-06</v>
+        <v>9.72019283031783E-06</v>
       </c>
       <c r="T8">
-        <v>1.510452375399272E-06</v>
+        <v>9.72019283031783E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H9">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I9">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J9">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N9">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O9">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P9">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q9">
-        <v>560.9061195795359</v>
+        <v>1025.422871142888</v>
       </c>
       <c r="R9">
-        <v>5048.155076215823</v>
+        <v>9228.805840285995</v>
       </c>
       <c r="S9">
-        <v>0.0001716166540924022</v>
+        <v>0.0001691677870897884</v>
       </c>
       <c r="T9">
-        <v>0.0001716166540924022</v>
+        <v>0.0001691677870897884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H10">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I10">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J10">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N10">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O10">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P10">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q10">
-        <v>2824.345219950576</v>
+        <v>10265.6683792826</v>
       </c>
       <c r="R10">
-        <v>25419.10697955519</v>
+        <v>92391.01541354334</v>
       </c>
       <c r="S10">
-        <v>0.000864145816439175</v>
+        <v>0.001693565115029368</v>
       </c>
       <c r="T10">
-        <v>0.000864145816439175</v>
+        <v>0.001693565115029368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H11">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I11">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J11">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N11">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O11">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P11">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q11">
-        <v>101.399895294552</v>
+        <v>59.49911088366333</v>
       </c>
       <c r="R11">
-        <v>912.599057650968</v>
+        <v>535.49199795297</v>
       </c>
       <c r="S11">
-        <v>3.102464057410476E-05</v>
+        <v>9.815787423173931E-06</v>
       </c>
       <c r="T11">
-        <v>3.102464057410476E-05</v>
+        <v>9.815787423173931E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H12">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I12">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J12">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N12">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O12">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P12">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q12">
-        <v>139326.283946772</v>
+        <v>356891.8506045017</v>
       </c>
       <c r="R12">
-        <v>1253936.555520948</v>
+        <v>3212026.655440515</v>
       </c>
       <c r="S12">
-        <v>0.04262872135536124</v>
+        <v>0.05887776281979373</v>
       </c>
       <c r="T12">
-        <v>0.04262872135536124</v>
+        <v>0.05887776281979372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H13">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I13">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J13">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N13">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O13">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P13">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q13">
-        <v>2133.889896692413</v>
+        <v>2757.377686784773</v>
       </c>
       <c r="R13">
-        <v>19205.00907023171</v>
+        <v>24816.39918106296</v>
       </c>
       <c r="S13">
-        <v>0.0006528918681551399</v>
+        <v>0.0004548947508107028</v>
       </c>
       <c r="T13">
-        <v>0.0006528918681551399</v>
+        <v>0.0004548947508107028</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H14">
         <v>0.141472</v>
       </c>
       <c r="I14">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J14">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N14">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O14">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P14">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q14">
-        <v>0.001140405792</v>
+        <v>0.007445074033777776</v>
       </c>
       <c r="R14">
-        <v>0.010263652128</v>
+        <v>0.06700566630399998</v>
       </c>
       <c r="S14">
-        <v>3.489222518687177E-10</v>
+        <v>1.228241279239352E-09</v>
       </c>
       <c r="T14">
-        <v>3.489222518687177E-10</v>
+        <v>1.228241279239352E-09</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H15">
         <v>0.141472</v>
       </c>
       <c r="I15">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J15">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,13 +1370,13 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N15">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O15">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P15">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q15">
         <v>0.1295721927537778</v>
@@ -1385,10 +1385,10 @@
         <v>1.166149734784</v>
       </c>
       <c r="S15">
-        <v>3.964432800356707E-08</v>
+        <v>2.137600177778141E-08</v>
       </c>
       <c r="T15">
-        <v>3.964432800356707E-08</v>
+        <v>2.137600177778141E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H16">
         <v>0.141472</v>
       </c>
       <c r="I16">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J16">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N16">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O16">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P16">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q16">
-        <v>0.6524382431715556</v>
+        <v>1.297167441276444</v>
       </c>
       <c r="R16">
-        <v>5.871944188544001</v>
+        <v>11.674506971488</v>
       </c>
       <c r="S16">
-        <v>1.996221192576065E-07</v>
+        <v>2.139984895022701E-07</v>
       </c>
       <c r="T16">
-        <v>1.996221192576065E-07</v>
+        <v>2.139984895022701E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H17">
         <v>0.141472</v>
       </c>
       <c r="I17">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J17">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N17">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O17">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P17">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q17">
-        <v>0.02342389629866667</v>
+        <v>0.007518293653333332</v>
       </c>
       <c r="R17">
-        <v>0.210815066688</v>
+        <v>0.06766464287999999</v>
       </c>
       <c r="S17">
-        <v>7.166851222086826E-09</v>
+        <v>1.240320589502799E-09</v>
       </c>
       <c r="T17">
-        <v>7.166851222086826E-09</v>
+        <v>1.240320589502799E-09</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H18">
         <v>0.141472</v>
       </c>
       <c r="I18">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J18">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N18">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O18">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P18">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q18">
-        <v>32.18508675346845</v>
+        <v>45.0967702790151</v>
       </c>
       <c r="R18">
-        <v>289.665780781216</v>
+        <v>405.8709325111359</v>
       </c>
       <c r="S18">
-        <v>9.847453446299444E-06</v>
+        <v>7.439780258162844E-06</v>
       </c>
       <c r="T18">
-        <v>9.847453446299444E-06</v>
+        <v>7.439780258162843E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H19">
         <v>0.141472</v>
       </c>
       <c r="I19">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J19">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N19">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O19">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P19">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q19">
-        <v>0.4929395193920001</v>
+        <v>0.3484215957937777</v>
       </c>
       <c r="R19">
-        <v>4.436455674528001</v>
+        <v>3.135794362143999</v>
       </c>
       <c r="S19">
-        <v>1.508213728375558E-07</v>
+        <v>5.748039369263571E-08</v>
       </c>
       <c r="T19">
-        <v>1.508213728375558E-07</v>
+        <v>5.748039369263571E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H20">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I20">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J20">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N20">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O20">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P20">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q20">
-        <v>97.27678072683601</v>
+        <v>892.5052079852869</v>
       </c>
       <c r="R20">
-        <v>875.4910265415241</v>
+        <v>8032.546871867582</v>
       </c>
       <c r="S20">
-        <v>2.97631190790612E-05</v>
+        <v>0.0001472398707400621</v>
       </c>
       <c r="T20">
-        <v>2.97631190790612E-05</v>
+        <v>0.0001472398707400622</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H21">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I21">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J21">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N21">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O21">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P21">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q21">
-        <v>11052.52697875158</v>
+        <v>15532.9357798394</v>
       </c>
       <c r="R21">
-        <v>99472.74280876426</v>
+        <v>139796.4220185546</v>
       </c>
       <c r="S21">
-        <v>0.003381666972685595</v>
+        <v>0.002562525614388284</v>
       </c>
       <c r="T21">
-        <v>0.003381666972685594</v>
+        <v>0.002562525614388284</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H22">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I22">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J22">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N22">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O22">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P22">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q22">
-        <v>55653.07749577049</v>
+        <v>155502.6439919391</v>
       </c>
       <c r="R22">
-        <v>500877.6974619345</v>
+        <v>1399523.795927452</v>
       </c>
       <c r="S22">
-        <v>0.01702779594725918</v>
+        <v>0.02565384380534445</v>
       </c>
       <c r="T22">
-        <v>0.01702779594725918</v>
+        <v>0.02565384380534445</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H23">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I23">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J23">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N23">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O23">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P23">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q23">
-        <v>1998.061777656723</v>
+        <v>901.2826750035532</v>
       </c>
       <c r="R23">
-        <v>17982.55599891051</v>
+        <v>8111.544075031979</v>
       </c>
       <c r="S23">
-        <v>0.0006113334566725849</v>
+        <v>0.0001486879217963827</v>
       </c>
       <c r="T23">
-        <v>0.0006113334566725849</v>
+        <v>0.0001486879217963827</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H24">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I24">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J24">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N24">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O24">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P24">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q24">
-        <v>2745392.603891076</v>
+        <v>5406138.630016268</v>
       </c>
       <c r="R24">
-        <v>24708533.43501968</v>
+        <v>48655247.67014642</v>
       </c>
       <c r="S24">
-        <v>0.83998921816542</v>
+        <v>0.8918705974649889</v>
       </c>
       <c r="T24">
-        <v>0.8399892181654199</v>
+        <v>0.8918705974649889</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H25">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I25">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J25">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N25">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O25">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P25">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q25">
-        <v>42047.81304678565</v>
+        <v>41768.30041039899</v>
       </c>
       <c r="R25">
-        <v>378430.3174210708</v>
+        <v>375914.7036935909</v>
       </c>
       <c r="S25">
-        <v>0.01286508514544557</v>
+        <v>0.006890670327114343</v>
       </c>
       <c r="T25">
-        <v>0.01286508514544557</v>
+        <v>0.006890670327114344</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H26">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I26">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J26">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N26">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O26">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P26">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q26">
-        <v>9.094814640851999</v>
+        <v>10.52411603856711</v>
       </c>
       <c r="R26">
-        <v>81.853331767668</v>
+        <v>94.71704434710399</v>
       </c>
       <c r="S26">
-        <v>2.782678961362784E-06</v>
+        <v>1.736202177094277E-06</v>
       </c>
       <c r="T26">
-        <v>2.782678961362784E-06</v>
+        <v>1.736202177094278E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H27">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I27">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J27">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N27">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O27">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P27">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q27">
-        <v>1033.347150611767</v>
+        <v>183.1590640637871</v>
       </c>
       <c r="R27">
-        <v>9300.124355505901</v>
+        <v>1648.431576574084</v>
       </c>
       <c r="S27">
-        <v>0.0003161662430013164</v>
+        <v>3.021642526714237E-05</v>
       </c>
       <c r="T27">
-        <v>0.0003161662430013164</v>
+        <v>3.021642526714237E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H28">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I28">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J28">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N28">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O28">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P28">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q28">
-        <v>5203.239871170718</v>
+        <v>1833.633972141635</v>
       </c>
       <c r="R28">
-        <v>46829.15884053647</v>
+        <v>16502.70574927472</v>
       </c>
       <c r="S28">
-        <v>0.001592000133284121</v>
+        <v>0.0003025013485940037</v>
       </c>
       <c r="T28">
-        <v>0.001592000133284121</v>
+        <v>0.0003025013485940037</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H29">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I29">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J29">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N29">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O29">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P29">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q29">
-        <v>186.8071843350587</v>
+        <v>10.62761692640333</v>
       </c>
       <c r="R29">
-        <v>1681.264659015528</v>
+        <v>95.64855233763001</v>
       </c>
       <c r="S29">
-        <v>5.715613151098702E-05</v>
+        <v>1.753277099694324E-06</v>
       </c>
       <c r="T29">
-        <v>5.715613151098702E-05</v>
+        <v>1.753277099694324E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H30">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I30">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J30">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N30">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O30">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P30">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q30">
-        <v>256678.2809031336</v>
+        <v>63747.33699459752</v>
       </c>
       <c r="R30">
-        <v>2310104.528128203</v>
+        <v>573726.0329513778</v>
       </c>
       <c r="S30">
-        <v>0.07853411865038358</v>
+        <v>0.01051663292844612</v>
       </c>
       <c r="T30">
-        <v>0.07853411865038358</v>
+        <v>0.01051663292844612</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H31">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I31">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J31">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N31">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O31">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P31">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q31">
-        <v>3931.226576952452</v>
+        <v>492.5175072592021</v>
       </c>
       <c r="R31">
-        <v>35381.03919257207</v>
+        <v>4432.657565332819</v>
       </c>
       <c r="S31">
-        <v>0.001202810823532191</v>
+        <v>8.125242682870485E-05</v>
       </c>
       <c r="T31">
-        <v>0.001202810823532191</v>
+        <v>8.125242682870487E-05</v>
       </c>
     </row>
   </sheetData>
